--- a/medicine/Psychotrope/Dolcetto_d'Acqui_superiore/Dolcetto_d'Acqui_superiore.xlsx
+++ b/medicine/Psychotrope/Dolcetto_d'Acqui_superiore/Dolcetto_d'Acqui_superiore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dolcetto_d%27Acqui_superiore</t>
+          <t>Dolcetto_d'Acqui_superiore</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Dolcetto d'Acqui est un vin rouge italien de la région Piémont doté d'une appellation DOC depuis le 1er septembre 1972. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent en province d'Alexandrie, dans les communes Alice Bel Colle, Bistagno, Cartosio, Cassine, Castelletto d'Erro, Castelnuovo Bormida, Cavatore, Denice, Grognardo, Melazzo, Montechiaro d'Acqui, Morbello, Orsara Bormida, Ponti, Ponzone, Ricaldone, Rivalta Bormida, Sezzadio, Spigno Monferrato, Strevi, Terzo et Visone.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dolcetto_d%27Acqui_superiore</t>
+          <t>Dolcetto_d'Acqui_superiore</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis avec tendance au rouge brique avec le vieillissement.
 odeur : vineux, agréablement caractéristique
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dolcetto_d%27Acqui_superiore</t>
+          <t>Dolcetto_d'Acqui_superiore</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,6 +564,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dolcetto_d%27Acqui_superiore</t>
+          <t>Dolcetto_d'Acqui_superiore</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Association de plats conseillée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hors-d’œuvre divers, agnolottis, des  risottos et tagliatelles aux champignons, escalopes de veau.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dolcetto_d%27Acqui_superiore</t>
+          <t>Dolcetto_d'Acqui_superiore</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
  pas de données disponibles 
